--- a/data/Balance-sheets.xlsx
+++ b/data/Balance-sheets.xlsx
@@ -15,7 +15,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="71">
+  <si>
+    <t>account type</t>
+  </si>
+  <si>
+    <t>"2016"</t>
+  </si>
+  <si>
+    <t>"2015"</t>
+  </si>
   <si>
     <t>cash</t>
   </si>
@@ -149,12 +158,6 @@
     <t>remeasurements of defined benefit plan equity investee</t>
   </si>
   <si>
-    <t>total other comprehensive income, net tax</t>
-  </si>
-  <si>
-    <t>comprehensive income for the year</t>
-  </si>
-  <si>
     <t>other comprehensive income</t>
   </si>
   <si>
@@ -174,6 +177,9 @@
   </si>
   <si>
     <t>balance 2016</t>
+  </si>
+  <si>
+    <t>"2014"</t>
   </si>
   <si>
     <t>balances 2015</t>
@@ -228,7 +234,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -237,16 +243,32 @@
     </font>
     <font>
       <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Docs-Ubuntu"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Ubuntu"/>
     </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Ubuntu"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -267,20 +289,25 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -518,18 +545,20 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2">
-        <v>2016.0</v>
-      </c>
-      <c r="C1" s="2">
-        <v>2015.0</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="D1" s="3"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2" s="4">
         <v>37243.0</v>
@@ -541,7 +570,7 @@
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3" s="4">
         <v>79373.0</v>
@@ -553,7 +582,7 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4">
         <v>211736.0</v>
@@ -565,7 +594,7 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5" s="4">
         <v>7229.0</v>
@@ -577,7 +606,7 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -585,7 +614,7 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B7" s="4">
         <v>345881.0</v>
@@ -597,7 +626,7 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B8" s="4">
         <v>37260.0</v>
@@ -609,7 +638,7 @@
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B9" s="4">
         <v>32610.0</v>
@@ -621,7 +650,7 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B10" s="4">
         <v>29040.0</v>
@@ -633,7 +662,7 @@
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B11" s="4">
         <v>13423.0</v>
@@ -645,7 +674,7 @@
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -653,7 +682,7 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -661,7 +690,7 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B14" s="4">
         <v>152136.0</v>
@@ -673,7 +702,7 @@
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B15" s="4">
         <v>0.0</v>
@@ -685,7 +714,7 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B16" s="4">
         <v>3365.0</v>
@@ -697,7 +726,7 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -705,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B18" s="4">
         <v>225489.0</v>
@@ -717,7 +746,7 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B19" s="4">
         <v>33853.0</v>
@@ -729,7 +758,7 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B20" s="4">
         <v>2630.0</v>
@@ -741,7 +770,7 @@
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B21" s="4">
         <v>18710.0</v>
@@ -753,7 +782,7 @@
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -761,7 +790,7 @@
     </row>
     <row r="23">
       <c r="A23" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -769,7 +798,7 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B24" s="4">
         <v>167910.0</v>
@@ -781,7 +810,7 @@
     </row>
     <row r="25">
       <c r="A25" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B25" s="4">
         <v>2620.0</v>
@@ -793,7 +822,7 @@
     </row>
     <row r="26">
       <c r="A26" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B26" s="4">
         <v>156664.0</v>
@@ -805,7 +834,7 @@
     </row>
     <row r="27">
       <c r="A27" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B27" s="4">
         <v>30418.0</v>
@@ -817,7 +846,7 @@
     </row>
     <row r="28">
       <c r="A28" s="5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -825,7 +854,7 @@
     </row>
     <row r="29">
       <c r="A29" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -946,17 +975,19 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4">
-        <v>2016.0</v>
-      </c>
-      <c r="C1" s="4">
-        <v>2015.0</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B2" s="4">
         <v>1796035.0</v>
@@ -967,7 +998,7 @@
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B3" s="4">
         <v>-1273421.0</v>
@@ -978,7 +1009,7 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B4" s="4">
         <v>522614.0</v>
@@ -989,7 +1020,7 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B5" s="4">
         <v>-415293.0</v>
@@ -1000,7 +1031,7 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B6" s="4">
         <v>107321.0</v>
@@ -1011,7 +1042,7 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B7" s="4">
         <v>-6210.0</v>
@@ -1022,7 +1053,7 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B8" s="4">
         <v>101111.0</v>
@@ -1033,7 +1064,7 @@
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B9" s="4">
         <v>-31332.0</v>
@@ -1044,7 +1075,7 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B10" s="4">
         <v>1.44</v>
@@ -1055,7 +1086,7 @@
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B11" s="4">
         <v>1.43</v>
@@ -1066,7 +1097,7 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B12" s="4">
         <v>48509.0</v>
@@ -1077,7 +1108,7 @@
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B13" s="4">
         <v>48783.0</v>
@@ -1165,17 +1196,19 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4">
-        <v>2016.0</v>
-      </c>
-      <c r="C1" s="4">
-        <v>2015.0</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B2" s="4">
         <v>69779.0</v>
@@ -1186,7 +1219,7 @@
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B3" s="4">
         <v>11953.0</v>
@@ -1197,7 +1230,7 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B4" s="4">
         <v>4583.0</v>
@@ -1208,7 +1241,7 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B5" s="4">
         <v>-15.0</v>
@@ -1218,18 +1251,14 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
     </row>
     <row r="8">
       <c r="A8" s="3"/>
@@ -1305,16 +1334,6 @@
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -1339,24 +1358,26 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3"/>
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F1" s="4"/>
     </row>
     <row r="2">
-      <c r="A2" s="4">
-        <v>2015.0</v>
+      <c r="A2" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="B2" s="4">
         <v>167460.0</v>
@@ -1374,7 +1395,7 @@
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B3" s="4">
         <v>0.0</v>
@@ -1392,7 +1413,7 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B4" s="4">
         <v>0.0</v>
@@ -1410,7 +1431,7 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B5" s="4">
         <v>0.0</v>
@@ -1428,7 +1449,7 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B6" s="4">
         <v>0.0</v>
@@ -1446,7 +1467,7 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B7" s="4">
         <v>0.0</v>
@@ -1464,7 +1485,7 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B8" s="4">
         <v>0.0</v>
@@ -1482,7 +1503,7 @@
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B9" s="4">
         <v>450.0</v>
@@ -1500,7 +1521,7 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1517,8 +1538,8 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12">
-      <c r="A12" s="4">
-        <v>2014.0</v>
+      <c r="A12" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="B12" s="4">
         <v>166069.0</v>
@@ -1536,7 +1557,7 @@
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B13" s="4">
         <v>0.0</v>
@@ -1554,7 +1575,7 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B14" s="4">
         <v>0.0</v>
@@ -1572,7 +1593,7 @@
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B15" s="4">
         <v>0.0</v>
@@ -1590,7 +1611,7 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B16" s="4">
         <v>0.0</v>
@@ -1608,7 +1629,7 @@
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B17" s="4">
         <v>0.0</v>
@@ -1626,7 +1647,7 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B18" s="4">
         <v>0.0</v>
@@ -1644,7 +1665,7 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B19" s="4">
         <v>1391.0</v>
@@ -1662,7 +1683,7 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -2007,18 +2028,20 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4">
-        <v>2016.0</v>
-      </c>
-      <c r="C1" s="4">
-        <v>2015.0</v>
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="D1" s="3"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B2" s="4">
         <v>69779.0</v>
@@ -2030,7 +2053,7 @@
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B3" s="4">
         <v>44026.0</v>
@@ -2042,7 +2065,7 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B4" s="4">
         <v>31332.0</v>
@@ -2054,7 +2077,7 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B5" s="4">
         <v>6210.0</v>
@@ -2066,7 +2089,7 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B6" s="4">
         <v>386.0</v>
@@ -2078,7 +2101,7 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B7" s="4">
         <v>-30659.0</v>
@@ -2090,7 +2113,7 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B8" s="4">
         <v>350.0</v>
@@ -2102,7 +2125,7 @@
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B9" s="4">
         <v>5904.0</v>
@@ -2114,7 +2137,7 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B10" s="4">
         <v>5659.0</v>
@@ -2126,7 +2149,7 @@
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B11" s="4">
         <v>-63179.0</v>
@@ -2138,7 +2161,7 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B12" s="4">
         <v>-12804.0</v>
@@ -2150,7 +2173,7 @@
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B13" s="4">
         <v>170.0</v>
@@ -2162,7 +2185,7 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B14" s="4">
         <v>13081.0</v>
@@ -2174,7 +2197,7 @@
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B15" s="4">
         <v>0.0</v>
@@ -2186,7 +2209,7 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B16" s="4">
         <v>-58210.0</v>
@@ -2198,7 +2221,7 @@
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B17" s="4">
         <v>-5160.0</v>
@@ -2210,7 +2233,7 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B18" s="4">
         <v>115.0</v>
@@ -2222,7 +2245,7 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B19" s="4">
         <v>1114.0</v>
@@ -2234,7 +2257,7 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B20" s="4">
         <v>8114.0</v>
@@ -2246,7 +2269,7 @@
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B21" s="4">
         <v>29129.0</v>
